--- a/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
+++ b/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FavouritesFolders\Documents\GitHub\MastersDegree\Отчет_4_сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBF4AD3-0D81-4291-8BAD-94BD0BAFE48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FE1F2-2611-48E6-A3CB-A1D7A06174EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">	Qini curve AUC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	UpLift curve AUC </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Структура</t>
   </si>
   <si>
     <t>Базовое решение</t>
+  </si>
+  <si>
+    <t>Решение с одной моделью</t>
+  </si>
+  <si>
+    <t>Решение с двумя независимыми моделями</t>
+  </si>
+  <si>
+    <t>Трансформация класса в задачу классификации</t>
+  </si>
+  <si>
+    <t>Трансформация класса в задачу регрессии</t>
+  </si>
+  <si>
+    <t>Решение с одной моделью с поиском лучшей модели</t>
+  </si>
+  <si>
+    <t>Трансформация класса в задачу регрессии с поиском лучшей модели</t>
+  </si>
+  <si>
+    <t>UpLift curve AUC</t>
+  </si>
+  <si>
+    <t>Qini curve AUC</t>
+  </si>
+  <si>
+    <t>Номер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +82,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -75,13 +106,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -103,16 +331,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259556</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>333374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -152,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="723900" y="95250"/>
-          <a:ext cx="809625" cy="228600"/>
+          <a:off x="10270331" y="333374"/>
+          <a:ext cx="902494" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,39 +666,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="84.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7.3400000000000002E-3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1.6149999999999999E-3</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4.0900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="15">
         <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.55E-2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:F9 C10:C1048576 D2:D9">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{397660DF-9617-41C7-AC63-66FFF543EA51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E9 D10:D1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{92B3CAFD-35EF-41B4-9B81-502C6E608F4A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9 E10:E12 E21:E1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{41B46D8F-1DB0-470F-9BA9-62866E778691}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{397660DF-9617-41C7-AC63-66FFF543EA51}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:F9 C10:C1048576 D2:D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{92B3CAFD-35EF-41B4-9B81-502C6E608F4A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E9 D10:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{41B46D8F-1DB0-470F-9BA9-62866E778691}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F9 E10:E12 E21:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
+++ b/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FavouritesFolders\Documents\GitHub\MastersDegree\Отчет_4_сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719FE1F2-2611-48E6-A3CB-A1D7A06174EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6693A5-1F10-496C-809C-744E3D465DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Для презы" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Структура</t>
   </si>
@@ -59,13 +60,16 @@
   <si>
     <t>Номер</t>
   </si>
+  <si>
+    <t>UpLift на k%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -284,20 +288,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +313,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,11 +678,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8FB87-5A66-4D8C-9793-4561668D335E}">
+  <dimension ref="C1:G9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>7.3400000000000002E-3</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1.6149999999999999E-3</v>
+      </c>
+      <c r="G3" s="18">
+        <v>4.0900000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2.23E-2</v>
+      </c>
+      <c r="G4" s="20">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>4.1999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="15">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1.24E-2</v>
+      </c>
+      <c r="F6" s="19">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1.38E-2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.55E-2</v>
+      </c>
+      <c r="G7" s="20">
+        <v>3.8E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="15">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="F8" s="19">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G9" s="22">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:G9 D10:D1048576">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1D89E735-6812-43B2-9F73-1F7A03702F27}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9 E10:E1048576">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3EFCDC47-4178-49D4-892C-8588C7950ADD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9 F10:F12 F21:F1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B6755B02-CA3C-4DFD-84A0-F320AC82FB4E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A3F9D91B-31EC-40E1-8F57-01497F86911B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1D89E735-6812-43B2-9F73-1F7A03702F27}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:G9 D10:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3EFCDC47-4178-49D4-892C-8588C7950ADD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F9 E10:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B6755B02-CA3C-4DFD-84A0-F320AC82FB4E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G2:G9 F10:F12 F21:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A3F9D91B-31EC-40E1-8F57-01497F86911B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFFB628"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
+++ b/Отчет_4_сем/Сравнительные результаты LETU_v5.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FavouritesFolders\Documents\GitHub\MastersDegree\Отчет_4_сем\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6693A5-1F10-496C-809C-744E3D465DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45E0E4C-F777-46F3-9CF6-554B87C060D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Для презы" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="План работ" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Структура</t>
   </si>
@@ -62,6 +63,81 @@
   </si>
   <si>
     <t>UpLift на k%</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование раздела или этапа</t>
+  </si>
+  <si>
+    <t>Трудоёмкость в % от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Срок </t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Изучение теоретического материала</t>
+  </si>
+  <si>
+    <t>01.09.2021 - 01.10.2021</t>
+  </si>
+  <si>
+    <t>Формулирование математической постановки задачи</t>
+  </si>
+  <si>
+    <t>02.10.2021 – 21.11.2021</t>
+  </si>
+  <si>
+    <t>Определение и исследование методов решения</t>
+  </si>
+  <si>
+    <t>22.11.2021 – 06.12.2021</t>
+  </si>
+  <si>
+    <t>Анализ метрик оценки качества uplift моделирования</t>
+  </si>
+  <si>
+    <t>06.12.2021 – 28.02.2022</t>
+  </si>
+  <si>
+    <t>Поиск данных</t>
+  </si>
+  <si>
+    <t>01.03.2022 – 31.03.2022</t>
+  </si>
+  <si>
+    <t>Анализ и агрегирование данных</t>
+  </si>
+  <si>
+    <t>01.04.2022 – 30.04.2022</t>
+  </si>
+  <si>
+    <t>Реализация uplift моделирования методами машинного обучения</t>
+  </si>
+  <si>
+    <t>01.05.2022 – 31.05.2022</t>
+  </si>
+  <si>
+    <t>Анализ алгоритмов uplift моделирования на данных X5</t>
+  </si>
+  <si>
+    <t>01.06.2022 – 14.11.2022</t>
+  </si>
+  <si>
+    <t>Анализ алгоритмов uplift моделирования на собственных данных</t>
+  </si>
+  <si>
+    <t>14.11.2022 – 01.05.2023</t>
+  </si>
+  <si>
+    <t>Оформление отчетности</t>
+  </si>
+  <si>
+    <t>02.05.2023 - 24.05.2023</t>
   </si>
 </sst>
 </file>
@@ -71,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +169,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -102,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -284,11 +367,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -322,6 +453,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D8FB87-5A66-4D8C-9793-4561668D335E}">
   <dimension ref="C1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -953,6 +1102,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A0EF57-D113-4B7E-A5DF-0DF2713D4AF8}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="24">
+        <v>5</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24">
+        <v>5</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="24">
+        <v>5</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="24">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="24">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="24">
+        <v>20</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>8</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24">
+        <v>30</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="24">
+        <v>25</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="24">
+        <v>5</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="24">
+        <f>SUM(C4:C13)</f>
+        <v>105</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="D1:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F9"/>
   <sheetViews>
